--- a/OTHER/Schema/Scehma.xlsx
+++ b/OTHER/Schema/Scehma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CMP 2\Databases\Project\Schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\2nd year\First Semester\Database Management Systems\Project\Pharmacy-App\OTHER\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A7B94-AADB-4D89-920C-DAC4D4255DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5AD40-E358-4E91-9793-D8D6A71D00C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,18 +162,9 @@
     <t>cash</t>
   </si>
   <si>
-    <t>Ph_ID(pharmacy)</t>
-  </si>
-  <si>
     <t>last_Name</t>
   </si>
   <si>
-    <t>Smoking Status</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
     <t>Analysis_Name</t>
   </si>
   <si>
@@ -190,6 +181,15 @@
   </si>
   <si>
     <t>Doctor_name</t>
+  </si>
+  <si>
+    <t>Smoking_Status</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Ph_ID(Pharmacy)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,15 +250,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -291,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,9 +298,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,26 +313,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,17 +615,17 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,40 +635,40 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="13"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="19"/>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="19"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -695,56 +682,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -755,24 +742,24 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
@@ -780,39 +767,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -820,156 +807,134 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="33">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A5:B5"/>
@@ -980,6 +945,29 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OTHER/Schema/Scehma.xlsx
+++ b/OTHER/Schema/Scehma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\2nd year\First Semester\Database Management Systems\Project\Pharmacy-App\OTHER\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5AD40-E358-4E91-9793-D8D6A71D00C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21DBE7-0ABA-49E5-AA67-E8823D5C7D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>User_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Email</t>
   </si>
@@ -75,18 +69,6 @@
     <t>Pharmacist_ID</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t>UID(User)</t>
-  </si>
-  <si>
     <t>Pharmacy</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>Pharmacy_Repository</t>
   </si>
   <si>
-    <t>Item_Name(Pharmaceutical_Item)</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -132,27 +111,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Patient_ID(Patient)</t>
-  </si>
-  <si>
-    <t>Prescription_Medicines</t>
-  </si>
-  <si>
-    <t>Prescription_ID(Prescription)</t>
-  </si>
-  <si>
     <t>Diagnosis</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Lower_Range</t>
-  </si>
-  <si>
-    <t>Upper_Range</t>
-  </si>
-  <si>
     <t>Purchase Operation</t>
   </si>
   <si>
@@ -162,9 +126,6 @@
     <t>cash</t>
   </si>
   <si>
-    <t>last_Name</t>
-  </si>
-  <si>
     <t>Analysis_Name</t>
   </si>
   <si>
@@ -180,16 +141,31 @@
     <t>Disease_Name</t>
   </si>
   <si>
-    <t>Doctor_name</t>
-  </si>
-  <si>
-    <t>Smoking_Status</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
     <t>Ph_ID(Pharmacy)</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Account_ID</t>
+  </si>
+  <si>
+    <t>Item_ID_Barcode</t>
+  </si>
+  <si>
+    <t>Item_ID(Pharmaceutical_Item)</t>
+  </si>
+  <si>
+    <t>Doctor_ID(Doctor)</t>
+  </si>
+  <si>
+    <t>Patient_Acc_ID(Account)</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
   </si>
 </sst>
 </file>
@@ -229,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,11 +254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,7 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,20 +303,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,362 +621,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="E17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="A23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="11" t="s">
-        <v>34</v>
+      <c r="A32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>35</v>
+      <c r="B35" s="18"/>
+      <c r="C35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="20"/>
+      <c r="A37" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="16"/>
+      <c r="A38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="27">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OTHER/Schema/Scehma.xlsx
+++ b/OTHER/Schema/Scehma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\2nd year\First Semester\Database Management Systems\Project\Pharmacy-App\OTHER\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21DBE7-0ABA-49E5-AA67-E8823D5C7D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6DB4A-1413-4DB6-8B66-7CA6E3433C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Email</t>
   </si>
@@ -51,24 +51,15 @@
     <t>Doctor</t>
   </si>
   <si>
-    <t>Doctor_ID</t>
-  </si>
-  <si>
     <t>Degree</t>
   </si>
   <si>
-    <t>Speciality</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Pharmacist</t>
   </si>
   <si>
-    <t>Pharmacist_ID</t>
-  </si>
-  <si>
     <t>Pharmacy</t>
   </si>
   <si>
@@ -117,21 +108,9 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Purchase Operation</t>
-  </si>
-  <si>
-    <t>OP_ID</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
     <t>Analysis_Name</t>
   </si>
   <si>
-    <t>scan_Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scan  </t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Analysis</t>
   </si>
   <si>
-    <t>Ph_ID(Pharmacy)</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -166,6 +142,30 @@
   </si>
   <si>
     <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Prescription_Status</t>
+  </si>
+  <si>
+    <t>Scan_Name</t>
+  </si>
+  <si>
+    <t>Doctor_ID(Account)</t>
+  </si>
+  <si>
+    <t>Pharmacist_ID(Account)</t>
+  </si>
+  <si>
+    <t>Operation_ID</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Purchase_Operation</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -265,30 +265,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,17 +302,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,23 +329,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,339 +619,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O2" s="16"/>
+      <c r="P2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="22" t="s">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="2" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="E23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G26:H26"/>
+  <mergeCells count="34">
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
